--- a/TSR Data Analysis.xlsx
+++ b/TSR Data Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymurshed\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\personal\remote\File-Downloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A004AA-B810-4C23-8D03-41AA4350581D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7059E7C7-B160-4123-8767-358241C348D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2781052E-7190-4080-9D53-E268C290EA6B}"/>
+    <workbookView xWindow="-23985" yWindow="495" windowWidth="17280" windowHeight="8970" xr2:uid="{2781052E-7190-4080-9D53-E268C290EA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Stats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t xml:space="preserve">API Version </t>
   </si>
@@ -44,9 +44,6 @@
     <t>API Description</t>
   </si>
   <si>
-    <t>Batch Number</t>
-  </si>
-  <si>
     <t>Batch Size</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>v1 - MemoryStream</t>
   </si>
   <si>
-    <t>DB call - non async</t>
-  </si>
-  <si>
     <t xml:space="preserve">File Size </t>
   </si>
   <si>
@@ -84,6 +78,15 @@
   </si>
   <si>
     <t>230 MB</t>
+  </si>
+  <si>
+    <t>DB call - non async, with ToList()</t>
+  </si>
+  <si>
+    <t>DB call - async, with CF and ToList()</t>
+  </si>
+  <si>
+    <t>Batch Count</t>
   </si>
 </sst>
 </file>
@@ -459,14 +462,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
@@ -485,30 +488,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -520,41 +526,179 @@
         <f>C2*D2</f>
         <v>4000000</v>
       </c>
+      <c r="F2" s="2">
+        <v>752</v>
+      </c>
+      <c r="G2" s="2">
+        <v>188</v>
+      </c>
+      <c r="H2" s="2">
+        <v>952</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2000000</v>
+      </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
-        <v>0</v>
+        <f t="shared" ref="E3:E16" si="0">C3*D3</f>
+        <v>4000000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>461</v>
+      </c>
+      <c r="G3" s="2">
+        <v>147</v>
+      </c>
+      <c r="H3" s="2">
+        <v>620</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1000000</v>
+      </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>291</v>
+      </c>
+      <c r="G4" s="2">
+        <v>129</v>
+      </c>
+      <c r="H4" s="2">
+        <v>431</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>500000</v>
+      </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>234</v>
+      </c>
+      <c r="G5" s="2">
+        <v>171</v>
+      </c>
+      <c r="H5" s="2">
+        <v>417</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>400000</v>
+      </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2">
+        <v>181</v>
+      </c>
+      <c r="H6" s="2">
+        <v>254</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>200000</v>
+      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>66</v>
+      </c>
+      <c r="G7" s="2">
+        <v>170</v>
+      </c>
+      <c r="H7" s="2">
+        <v>249</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100000</v>
+      </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2">
+        <v>151</v>
+      </c>
+      <c r="H8" s="2">
+        <v>221</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -578,10 +722,10 @@
     <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -603,7 +747,7 @@
         <v>714</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -627,7 +771,7 @@
         <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -651,7 +795,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -675,7 +819,7 @@
         <v>13</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/TSR Data Analysis.xlsx
+++ b/TSR Data Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\personal\remote\File-Downloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7059E7C7-B160-4123-8767-358241C348D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1BFDA-D9F2-4314-B396-89F993464458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23985" yWindow="495" windowWidth="17280" windowHeight="8970" xr2:uid="{2781052E-7190-4080-9D53-E268C290EA6B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2781052E-7190-4080-9D53-E268C290EA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Stats" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t xml:space="preserve">API Version </t>
   </si>
@@ -59,12 +59,6 @@
     <t>Total Data</t>
   </si>
   <si>
-    <t>v2 - FileStream + Thread</t>
-  </si>
-  <si>
-    <t>v1 - MemoryStream</t>
-  </si>
-  <si>
     <t xml:space="preserve">File Size </t>
   </si>
   <si>
@@ -87,13 +81,34 @@
   </si>
   <si>
     <t>Batch Count</t>
+  </si>
+  <si>
+    <t>v1 - MemoryStream - (local)</t>
+  </si>
+  <si>
+    <t>v1 - MemoryStream - (vdi)</t>
+  </si>
+  <si>
+    <t>v2 - FileStream + Thread - (local)</t>
+  </si>
+  <si>
+    <t>v2 - FileStream + Thread - (vdi)</t>
+  </si>
+  <si>
+    <t>423?</t>
+  </si>
+  <si>
+    <t>415?</t>
+  </si>
+  <si>
+    <t>426?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +116,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -134,15 +163,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -460,366 +495,452 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4489D-F2E1-4D14-8980-4033DE5C9C21}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E2" s="1">
+        <f>C2*D2</f>
+        <v>4000000</v>
+      </c>
+      <c r="F2" s="1">
+        <v>752</v>
+      </c>
+      <c r="G2" s="1">
+        <v>188</v>
+      </c>
+      <c r="H2" s="1">
+        <v>952</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E20" si="0">C3*D3</f>
+        <v>4000000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>461</v>
+      </c>
+      <c r="G3" s="1">
+        <v>147</v>
+      </c>
+      <c r="H3" s="1">
+        <v>620</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>291</v>
+      </c>
+      <c r="G4" s="1">
+        <v>129</v>
+      </c>
+      <c r="H4" s="1">
+        <v>431</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>234</v>
+      </c>
+      <c r="G5" s="1">
+        <v>171</v>
+      </c>
+      <c r="H5" s="1">
+        <v>417</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1">
+        <v>181</v>
+      </c>
+      <c r="H6" s="1">
+        <v>254</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1">
+        <v>170</v>
+      </c>
+      <c r="H7" s="1">
+        <v>249</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1">
+        <v>151</v>
+      </c>
+      <c r="H8" s="1">
+        <v>221</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ref="E10:E15" si="1">C10*D10</f>
+        <v>4000000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>54</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="1">
+        <f>C12*D12</f>
+        <v>4000000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>56</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E2" s="2">
-        <f>C2*D2</f>
-        <v>4000000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>752</v>
-      </c>
-      <c r="G2" s="2">
-        <v>188</v>
-      </c>
-      <c r="H2" s="2">
-        <v>952</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="D17" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>4000000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>548</v>
+      </c>
+      <c r="G17" s="1">
+        <v>143</v>
+      </c>
+      <c r="H17" s="1">
+        <v>714</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
         <v>2000000</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E16" si="0">C3*D3</f>
-        <v>4000000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>461</v>
-      </c>
-      <c r="G3" s="2">
-        <v>147</v>
-      </c>
-      <c r="H3" s="2">
-        <v>620</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>4000000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>291</v>
-      </c>
-      <c r="G4" s="2">
-        <v>129</v>
-      </c>
-      <c r="H4" s="2">
-        <v>431</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>500000</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>4000000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>234</v>
-      </c>
-      <c r="G5" s="2">
-        <v>171</v>
-      </c>
-      <c r="H5" s="2">
-        <v>417</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>400000</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>4000000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>60</v>
-      </c>
-      <c r="G6" s="2">
-        <v>181</v>
-      </c>
-      <c r="H6" s="2">
-        <v>254</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>4000000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>66</v>
-      </c>
-      <c r="G7" s="2">
-        <v>170</v>
-      </c>
-      <c r="H7" s="2">
-        <v>249</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>40</v>
-      </c>
-      <c r="D8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>4000000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2">
-        <v>151</v>
-      </c>
-      <c r="H8" s="2">
-        <v>221</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>4000000</v>
-      </c>
-      <c r="F13" s="2">
-        <v>548</v>
-      </c>
-      <c r="G13" s="2">
-        <v>143</v>
-      </c>
-      <c r="H13" s="2">
-        <v>714</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F18" s="1">
         <v>41</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G18" s="1">
         <v>35</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H18" s="1">
         <v>91</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="2">
+      <c r="I18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D19" s="1">
         <v>1000000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F19" s="1">
         <v>17</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G19" s="1">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H19" s="1">
         <v>30</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="2">
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D20" s="1">
         <v>500000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F20" s="1">
         <v>9</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H20" s="1">
         <v>13</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>13</v>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" ref="E22" si="2">C22*D22</f>
+        <v>4000000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>171</v>
+      </c>
+      <c r="G22" s="1">
+        <v>59</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/TSR Data Analysis.xlsx
+++ b/TSR Data Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\personal\remote\File-Downloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A1BFDA-D9F2-4314-B396-89F993464458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A133D2D-4663-49D3-8245-671501282799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2781052E-7190-4080-9D53-E268C290EA6B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t xml:space="preserve">API Version </t>
   </si>
@@ -102,13 +102,22 @@
   </si>
   <si>
     <t>426?</t>
+  </si>
+  <si>
+    <t>DB call - async, with CF and ToListAsync()</t>
+  </si>
+  <si>
+    <t>404?</t>
+  </si>
+  <si>
+    <t>171/135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +129,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +202,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,16 +531,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB4489D-F2E1-4D14-8980-4033DE5C9C21}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
@@ -585,7 +621,7 @@
         <v>2000000</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E20" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E25" si="0">C3*D3</f>
         <v>4000000</v>
       </c>
       <c r="F3" s="1">
@@ -655,30 +691,30 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="8">
         <v>10</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="8">
         <v>400000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="8">
         <v>60</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="8">
         <v>181</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="8">
         <v>254</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="8" t="s">
         <v>8</v>
       </c>
     </row>
@@ -709,35 +745,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="8">
         <v>40</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8">
         <v>100000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>58</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="8">
         <v>151</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="8">
         <v>221</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -745,201 +781,320 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E10" s="1">
+        <f>C10*D10</f>
+        <v>4000000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>135</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="8">
         <v>400000</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" ref="E10:E15" si="1">C10*D10</f>
-        <v>4000000</v>
-      </c>
-      <c r="F10" s="1">
-        <v>70</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E11" s="8">
+        <f t="shared" ref="E11:E12" si="1">C11*D11</f>
+        <v>4000000</v>
+      </c>
+      <c r="F11" s="8">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
+      <c r="I11" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>200000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
-      <c r="F11" s="1">
-        <v>54</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F12" s="1">
+        <v>68</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+      <c r="I12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
         <v>40</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="8">
         <v>100000</v>
       </c>
-      <c r="E12" s="1">
-        <f>C12*D12</f>
-        <v>4000000</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E13" s="8">
+        <f>C13*D13</f>
+        <v>4000000</v>
+      </c>
+      <c r="F13" s="8">
         <v>56</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G14" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="I13" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E15" s="1">
+        <f>C15*D15</f>
+        <v>4000000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>247</v>
+      </c>
+      <c r="G15" s="7">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:E17" si="2">C16*D16</f>
+        <v>4000000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>121</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>4000000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>124</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="I17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18*D18</f>
+        <v>4000000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>123</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="I18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D22" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F22" s="1">
         <v>548</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G22" s="1">
         <v>143</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H22" s="1">
         <v>714</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="1">
+      <c r="I22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D23" s="1">
         <v>2000000</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F23" s="1">
         <v>41</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G23" s="1">
         <v>35</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H23" s="1">
         <v>91</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D24" s="1">
         <v>1000000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F24" s="1">
         <v>17</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G24" s="1">
         <v>10</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H24" s="1">
         <v>30</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D25" s="1">
         <v>500000</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F25" s="1">
         <v>9</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G25" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H25" s="1">
         <v>13</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1">
-        <v>4000000</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" ref="E22" si="2">C22*D22</f>
-        <v>4000000</v>
-      </c>
-      <c r="F22" s="1">
-        <v>171</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="D27" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ref="E27" si="3">C27*D27</f>
+        <v>4000000</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1">
         <v>59</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TSR Data Analysis.xlsx
+++ b/TSR Data Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sources\personal\remote\File-Downloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A133D2D-4663-49D3-8245-671501282799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062C76E7-530C-4068-B66B-AFEB3B234547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2781052E-7190-4080-9D53-E268C290EA6B}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11325" xr2:uid="{2781052E-7190-4080-9D53-E268C290EA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Stats" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,12 +202,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -234,9 +228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,24 +528,24 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -580,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -610,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
@@ -637,7 +631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -664,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
@@ -691,34 +685,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8">
+    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>400000</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>60</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>181</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>254</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
@@ -745,35 +739,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8">
+    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
         <v>40</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>100000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>58</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>151</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>221</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -793,37 +787,35 @@
       <c r="F10" s="1">
         <v>135</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="8">
+    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="6">
         <v>10</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>400000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <f t="shared" ref="E11:E12" si="1">C11*D11</f>
         <v>4000000</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>52</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
@@ -847,32 +839,32 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8">
+    <row r="13" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6">
         <v>40</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>100000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <f>C13*D13</f>
         <v>4000000</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>56</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -892,11 +884,11 @@
       <c r="F15" s="1">
         <v>247</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
@@ -920,7 +912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -942,7 +934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -964,11 +956,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G19" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -998,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -1022,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>1</v>
       </c>
@@ -1046,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>1</v>
       </c>
@@ -1070,8 +1062,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
